--- a/results/TumorTexture/2_1/feature_analysis.xlsx
+++ b/results/TumorTexture/2_1/feature_analysis.xlsx
@@ -40,6 +40,9 @@
     <t>Composite_Score</t>
   </si>
   <si>
+    <t>DC</t>
+  </si>
+  <si>
     <t>CX</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>AP</t>
   </si>
   <si>
+    <t>E</t>
+  </si>
+  <si>
     <t>EZ</t>
   </si>
   <si>
@@ -67,202 +73,196 @@
     <t>CT</t>
   </si>
   <si>
+    <t>HF</t>
+  </si>
+  <si>
     <t>CK</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>DC</t>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>BP</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HK</t>
+  </si>
+  <si>
+    <t>AX</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
+  <si>
+    <t>DN</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>EK</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>EN</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>CJ</t>
+  </si>
+  <si>
+    <t>BU</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BQ</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>BZ</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>EK</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>BE</t>
-  </si>
-  <si>
-    <t>EN</t>
-  </si>
-  <si>
-    <t>BA</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>BP</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>HF</t>
-  </si>
-  <si>
-    <t>HP</t>
-  </si>
-  <si>
-    <t>BM</t>
-  </si>
-  <si>
-    <t>CP</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>AX</t>
+    <t>BK</t>
+  </si>
+  <si>
+    <t>DX</t>
   </si>
   <si>
     <t>BN</t>
   </si>
   <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>AH</t>
-  </si>
-  <si>
-    <t>AU</t>
-  </si>
-  <si>
-    <t>CB</t>
-  </si>
-  <si>
-    <t>AA</t>
-  </si>
-  <si>
-    <t>BZ</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>DN</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>AB</t>
   </si>
   <si>
+    <t>BI</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>DI</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>AQ</t>
+  </si>
+  <si>
+    <t>CU</t>
+  </si>
+  <si>
+    <t>DJ</t>
+  </si>
+  <si>
     <t>AK</t>
   </si>
   <si>
-    <t>BU</t>
-  </si>
-  <si>
-    <t>AO</t>
-  </si>
-  <si>
-    <t>CJ</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>BQ</t>
-  </si>
-  <si>
-    <t>BV</t>
-  </si>
-  <si>
-    <t>AI</t>
-  </si>
-  <si>
-    <t>DX</t>
+    <t>BD</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AY</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>BC</t>
   </si>
   <si>
     <t>EJ</t>
   </si>
   <si>
-    <t>CC</t>
-  </si>
-  <si>
-    <t>AM</t>
-  </si>
-  <si>
-    <t>EM</t>
-  </si>
-  <si>
-    <t>BK</t>
-  </si>
-  <si>
-    <t>HK</t>
-  </si>
-  <si>
-    <t>BR</t>
-  </si>
-  <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>CU</t>
-  </si>
-  <si>
-    <t>BI</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>BD</t>
-  </si>
-  <si>
-    <t>AQ</t>
-  </si>
-  <si>
-    <t>AY</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>DI</t>
-  </si>
-  <si>
-    <t>BC</t>
-  </si>
-  <si>
     <t>HN</t>
   </si>
   <si>
+    <t>BH</t>
+  </si>
+  <si>
+    <t>AT</t>
+  </si>
+  <si>
     <t>BX</t>
-  </si>
-  <si>
-    <t>FI</t>
-  </si>
-  <si>
-    <t>BH</t>
-  </si>
-  <si>
-    <t>AT</t>
-  </si>
-  <si>
-    <t>DJ</t>
   </si>
 </sst>
 </file>
@@ -657,16 +657,16 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>0.003104721824107533</v>
+        <v>0.0006479390199865459</v>
       </c>
       <c r="C2">
-        <v>0.6223799864773497</v>
+        <v>0.642517314618155</v>
       </c>
       <c r="D2">
         <v>5</v>
       </c>
       <c r="E2">
-        <v>0.002458375681650915</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>0.9995083248636699</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -683,25 +683,25 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.01986080997882918</v>
+        <v>0.003104721824107533</v>
       </c>
       <c r="C3">
-        <v>0.5963911426639621</v>
+        <v>0.6191698217748638</v>
       </c>
       <c r="D3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>0.01922532779889556</v>
+        <v>0.002458375681650915</v>
       </c>
       <c r="F3">
-        <v>0.9013790891597171</v>
+        <v>0.9227084301401354</v>
       </c>
       <c r="G3">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0.8767065701041079</v>
+        <v>0.968591696919724</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -709,25 +709,25 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03653142196475653</v>
+        <v>0.01986080997882918</v>
       </c>
       <c r="C4">
-        <v>0.5865449628127113</v>
+        <v>0.6051131221719457</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4">
-        <v>0.03590674832809258</v>
+        <v>0.01922532779889556</v>
       </c>
       <c r="F4">
-        <v>0.8640153944836428</v>
+        <v>0.8761739098535057</v>
       </c>
       <c r="G4">
         <v>0.8</v>
       </c>
       <c r="H4">
-        <v>0.8584248081278387</v>
+        <v>0.8666244983816234</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -735,25 +735,25 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.125062577461797</v>
+        <v>0.03653142196475653</v>
       </c>
       <c r="C5">
-        <v>0.5628803245436106</v>
+        <v>0.5838544648628683</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <v>0.124495303806952</v>
+        <v>0.03590674832809258</v>
       </c>
       <c r="F5">
-        <v>0.7742142398973698</v>
+        <v>0.8057974027244493</v>
       </c>
       <c r="G5">
         <v>0.8</v>
       </c>
       <c r="H5">
-        <v>0.8047866351975577</v>
+        <v>0.8351376114241613</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -761,25 +761,25 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.07012878453317477</v>
+        <v>0.125062577461797</v>
       </c>
       <c r="C6">
-        <v>0.5749661933739012</v>
+        <v>0.5638119863329948</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E6">
-        <v>0.06952589405284451</v>
+        <v>0.124495303806952</v>
       </c>
       <c r="F6">
-        <v>0.8200769724182161</v>
+        <v>0.7394470395460883</v>
       </c>
       <c r="G6">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="H6">
-        <v>0.7541256101567175</v>
+        <v>0.790879755057045</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -787,25 +787,25 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.08670955744006328</v>
+        <v>0.07012878453317477</v>
       </c>
       <c r="C7">
-        <v>0.5709093982420554</v>
+        <v>0.5748259303721488</v>
       </c>
       <c r="D7">
         <v>3</v>
       </c>
       <c r="E7">
-        <v>0.08611741725501673</v>
+        <v>0.06952589405284451</v>
       </c>
       <c r="F7">
-        <v>0.8046824887748553</v>
+        <v>0.7759085573137027</v>
       </c>
       <c r="G7">
         <v>0.6</v>
       </c>
       <c r="H7">
-        <v>0.7446495120589388</v>
+        <v>0.7364582441149121</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -813,25 +813,25 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.2157470908993124</v>
+        <v>0.08670955744006328</v>
       </c>
       <c r="C8">
-        <v>0.5497802569303584</v>
+        <v>0.5638489241850587</v>
       </c>
       <c r="D8">
         <v>3</v>
       </c>
       <c r="E8">
-        <v>0.2152386133755397</v>
+        <v>0.08611741725501673</v>
       </c>
       <c r="F8">
-        <v>0.7245028864656828</v>
+        <v>0.7395693218224952</v>
       </c>
       <c r="G8">
         <v>0.6</v>
       </c>
       <c r="H8">
-        <v>0.6867534319111652</v>
+        <v>0.7186042452779947</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -839,25 +839,25 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.09816559927457982</v>
+        <v>0.3824655412088412</v>
       </c>
       <c r="C9">
-        <v>0.5684584178498986</v>
+        <v>0.5357281374088096</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>0.09758088671870321</v>
+        <v>0.382065157112325</v>
       </c>
       <c r="F9">
-        <v>0.7953816549069913</v>
+        <v>0.6464758247939543</v>
       </c>
       <c r="G9">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H9">
-        <v>0.658636484619056</v>
+        <v>0.7021772984951168</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -865,25 +865,25 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1324179454158561</v>
+        <v>0.2157470908993124</v>
       </c>
       <c r="C10">
-        <v>0.5622887085868831</v>
+        <v>0.5367443900637178</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
-        <v>0.1318554406808842</v>
+        <v>0.2152386133755397</v>
       </c>
       <c r="F10">
-        <v>0.771969211032713</v>
+        <v>0.6498401159235979</v>
       </c>
       <c r="G10">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H10">
-        <v>0.6424165962769084</v>
+        <v>0.6568883236943313</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -891,25 +891,25 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.1644582703085382</v>
+        <v>0.09816559927457982</v>
       </c>
       <c r="C11">
-        <v>0.557555780933063</v>
+        <v>0.5672675223935728</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
       <c r="E11">
-        <v>0.1639165392103272</v>
+        <v>0.09758088671870321</v>
       </c>
       <c r="F11">
-        <v>0.7540089801154587</v>
+        <v>0.7508865465039497</v>
       </c>
       <c r="G11">
         <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.6288202842041181</v>
+        <v>0.6408384412578393</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -917,25 +917,25 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.3824655412088412</v>
+        <v>0.1324179454158561</v>
       </c>
       <c r="C12">
-        <v>0.4638269100743746</v>
+        <v>0.5593221904146273</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>0.382065157112325</v>
+        <v>0.1318554406808842</v>
       </c>
       <c r="F12">
-        <v>0.3983322642719691</v>
+        <v>0.7245836288488342</v>
       </c>
       <c r="G12">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="H12">
-        <v>0.6029198742863227</v>
+        <v>0.6234623634033569</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -943,25 +943,25 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.0006479390199865459</v>
+        <v>0.3531367558601586</v>
       </c>
       <c r="C13">
-        <v>0.3588573360378634</v>
+        <v>0.5317850217009881</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>0.3527173561782664</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>0.6334221917875222</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H13">
-        <v>0.6000000000000001</v>
+        <v>0.6228254054793556</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -969,25 +969,25 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.06521736473355935</v>
+        <v>0.1644582703085382</v>
       </c>
       <c r="C14">
-        <v>0.5763184584178499</v>
+        <v>0.5615412318773664</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0.06461128988942383</v>
+        <v>0.1639165392103272</v>
       </c>
       <c r="F14">
-        <v>0.8252084669660034</v>
+        <v>0.7319297366039768</v>
       </c>
       <c r="G14">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H14">
-        <v>0.5971611288085166</v>
+        <v>0.6199885867995253</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -995,25 +995,25 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.263346315971654</v>
+        <v>0.03089829977301132</v>
       </c>
       <c r="C15">
-        <v>0.54631507775524</v>
+        <v>0.5075279342506234</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0.2628686998394266</v>
+        <v>0.0302699738502163</v>
       </c>
       <c r="F15">
-        <v>0.7113534316869784</v>
+        <v>0.5531194208711391</v>
       </c>
       <c r="G15">
         <v>0.4</v>
       </c>
       <c r="H15">
-        <v>0.5919676327069061</v>
+        <v>0.5751937735784124</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1021,25 +1021,25 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.08975477391844924</v>
+        <v>0.01363013844921856</v>
       </c>
       <c r="C16">
-        <v>0.5702332657200812</v>
+        <v>0.4989712808200203</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <v>0.08916460812727017</v>
+        <v>0.01299061655659271</v>
       </c>
       <c r="F16">
-        <v>0.8021167415009618</v>
+        <v>0.5247927315414903</v>
       </c>
       <c r="G16">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H16">
-        <v>0.5830137749749307</v>
+        <v>0.5673189693052776</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1047,25 +1047,25 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.3484568179362907</v>
+        <v>0.263346315971654</v>
       </c>
       <c r="C17">
-        <v>0.5387931034482759</v>
+        <v>0.5362000184689261</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.3480343839739778</v>
+        <v>0.2628686998394266</v>
       </c>
       <c r="F17">
-        <v>0.6828094932649132</v>
+        <v>0.648037980875052</v>
       </c>
       <c r="G17">
         <v>0.4</v>
       </c>
       <c r="H17">
-        <v>0.5635169205111697</v>
+        <v>0.5666414523821356</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1076,7 +1076,7 @@
         <v>0.6304344372491189</v>
       </c>
       <c r="C18">
-        <v>0.519945909398242</v>
+        <v>0.5276267430048942</v>
       </c>
       <c r="D18">
         <v>3</v>
@@ -1085,13 +1085,13 @@
         <v>0.6301948260471218</v>
       </c>
       <c r="F18">
-        <v>0.611289288005131</v>
+        <v>0.6196562645210201</v>
       </c>
       <c r="G18">
         <v>0.6</v>
       </c>
       <c r="H18">
-        <v>0.558476749992628</v>
+        <v>0.5618235405989837</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1099,25 +1099,25 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.1631189137040829</v>
+        <v>0.2998296722752707</v>
       </c>
       <c r="C19">
-        <v>0.5575135226504395</v>
+        <v>0.462815587773571</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>0.1625763142218063</v>
+        <v>0.2993757104597272</v>
       </c>
       <c r="F19">
-        <v>0.75384862091084</v>
+        <v>0.4050997823375481</v>
       </c>
       <c r="G19">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="H19">
-        <v>0.5490241855199749</v>
+        <v>0.5421647708430738</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1125,25 +1125,25 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.1888973184034439</v>
+        <v>0.1932676178322463</v>
       </c>
       <c r="C20">
-        <v>0.5543441514536849</v>
+        <v>0.5531669590913288</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.1883714325848799</v>
+        <v>0.1927445655371617</v>
       </c>
       <c r="F20">
-        <v>0.7418216805644638</v>
+        <v>0.7042068160140869</v>
       </c>
       <c r="G20">
         <v>0.2</v>
       </c>
       <c r="H20">
-        <v>0.5390543857088096</v>
+        <v>0.5231338132982024</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1151,25 +1151,25 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.1932676178322463</v>
+        <v>0.06229436140264019</v>
       </c>
       <c r="C21">
-        <v>0.5538370520622042</v>
+        <v>0.5878733031674208</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1927445655371617</v>
+        <v>0.06168639140264558</v>
       </c>
       <c r="F21">
-        <v>0.739897370109044</v>
+        <v>0.8191017143975151</v>
       </c>
       <c r="G21">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.5374100349361852</v>
+        <v>0.515303407478477</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1177,25 +1177,25 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.2998296722752707</v>
+        <v>0.7538299432437546</v>
       </c>
       <c r="C22">
-        <v>0.4570655848546315</v>
+        <v>0.5100821867208423</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0.2993757104597272</v>
+        <v>0.7536703366430856</v>
       </c>
       <c r="F22">
-        <v>0.3726747915330338</v>
+        <v>0.5615752402846734</v>
       </c>
       <c r="G22">
         <v>0.6</v>
       </c>
       <c r="H22">
-        <v>0.5291947745212681</v>
+        <v>0.5138960287852523</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1203,25 +1203,25 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.3293070767217793</v>
+        <v>0.006056484383871757</v>
       </c>
       <c r="C23">
-        <v>0.4596010818120351</v>
+        <v>0.5060107119770986</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E23">
-        <v>0.3288722268501588</v>
+        <v>0.005412052043582446</v>
       </c>
       <c r="F23">
-        <v>0.3822963438101344</v>
+        <v>0.5480966763677274</v>
       </c>
       <c r="G23">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="H23">
-        <v>0.527144092154022</v>
+        <v>0.4981562601383745</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1229,25 +1229,25 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.3531367558601586</v>
+        <v>0.5889480248583436</v>
       </c>
       <c r="C24">
-        <v>0.4615449628127112</v>
+        <v>0.5258648074614461</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E24">
-        <v>0.3527173561782664</v>
+        <v>0.5886815155626349</v>
       </c>
       <c r="F24">
-        <v>0.3896728672225782</v>
+        <v>0.6138233999364133</v>
       </c>
       <c r="G24">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H24">
-        <v>0.525325675653378</v>
+        <v>0.4877930568620384</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1255,25 +1255,25 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.7538299432437546</v>
+        <v>0.2034661065084796</v>
       </c>
       <c r="C25">
-        <v>0.5130155510480054</v>
+        <v>0.46708098624065</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25">
-        <v>0.7536703366430856</v>
+        <v>0.2029496664965094</v>
       </c>
       <c r="F25">
-        <v>0.5849903784477227</v>
+        <v>0.4192203282056296</v>
       </c>
       <c r="G25">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="H25">
-        <v>0.523262084050472</v>
+        <v>0.48709819798295</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1284,7 +1284,7 @@
         <v>0.2327233621048089</v>
       </c>
       <c r="C26">
-        <v>0.5493999323867478</v>
+        <v>0.5298268538184505</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1293,13 +1293,13 @@
         <v>0.2322258913012476</v>
       </c>
       <c r="F26">
-        <v>0.7230596536241175</v>
+        <v>0.6269397026095039</v>
       </c>
       <c r="G26">
         <v>0.2</v>
       </c>
       <c r="H26">
-        <v>0.5227786831893975</v>
+        <v>0.4843307027835521</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1307,25 +1307,25 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.06229436140264019</v>
+        <v>0.1356002701654796</v>
       </c>
       <c r="C27">
-        <v>0.5771636240703178</v>
+        <v>0.4421285437251823</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0.06168639140264558</v>
+        <v>0.1350398287197729</v>
       </c>
       <c r="F27">
-        <v>0.8284156510583706</v>
+        <v>0.3366155934358873</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H27">
-        <v>0.5190289821428191</v>
+        <v>0.4676382716304004</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1333,25 +1333,25 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.5165726314675287</v>
+        <v>0.3495576307024587</v>
       </c>
       <c r="C28">
-        <v>0.5268762677484787</v>
+        <v>0.5290493120325053</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E28">
-        <v>0.5162591969256572</v>
+        <v>0.3491359104621391</v>
       </c>
       <c r="F28">
-        <v>0.6375881975625398</v>
+        <v>0.6243656606911393</v>
       </c>
       <c r="G28">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H28">
-        <v>0.5117834396398846</v>
+        <v>0.4599190821840279</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1359,25 +1359,25 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.5889480248583436</v>
+        <v>0.4202745541931929</v>
       </c>
       <c r="C29">
-        <v>0.5223968897903989</v>
+        <v>0.5395659802382491</v>
       </c>
       <c r="D29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0.5886815155626349</v>
+        <v>0.4198986839149558</v>
       </c>
       <c r="F29">
-        <v>0.6205901218729951</v>
+        <v>0.6591809533126266</v>
       </c>
       <c r="G29">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H29">
-        <v>0.4904997456366711</v>
+        <v>0.4596926445420595</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1385,25 +1385,25 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.6681800460766195</v>
+        <v>0.1906998806885787</v>
       </c>
       <c r="C30">
-        <v>0.5177484787018256</v>
+        <v>0.4329799612152553</v>
       </c>
       <c r="D30">
         <v>2</v>
       </c>
       <c r="E30">
-        <v>0.6679649075842385</v>
+        <v>0.1901751635777064</v>
       </c>
       <c r="F30">
-        <v>0.6029506093649775</v>
+        <v>0.3063293306268188</v>
       </c>
       <c r="G30">
         <v>0.4</v>
       </c>
       <c r="H30">
-        <v>0.4675872622291433</v>
+        <v>0.4444966995351863</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1411,25 +1411,25 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.3495576307024587</v>
+        <v>0.2538743631737941</v>
       </c>
       <c r="C31">
-        <v>0.5267494929006085</v>
+        <v>0.5565204543355804</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>0.3491359104621391</v>
+        <v>0.2533906058146128</v>
       </c>
       <c r="F31">
-        <v>0.6371071199486845</v>
+        <v>0.7153085181833745</v>
       </c>
       <c r="G31">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>0.465015665887046</v>
+        <v>0.4354452861104272</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1437,25 +1437,25 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.4202745541931929</v>
+        <v>0.0942920674693665</v>
       </c>
       <c r="C32">
-        <v>0.5333840432724813</v>
+        <v>0.4648822605965464</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.4198986839149558</v>
+        <v>0.09370484347382838</v>
       </c>
       <c r="F32">
-        <v>0.6622835150737646</v>
+        <v>0.4119414757025118</v>
       </c>
       <c r="G32">
         <v>0.2</v>
       </c>
       <c r="H32">
-        <v>0.4609336692465147</v>
+        <v>0.4260356215862391</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1463,25 +1463,25 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.1906998806885787</v>
+        <v>0.08975477391844924</v>
       </c>
       <c r="C33">
-        <v>0.4458248816768086</v>
+        <v>0.4551546772555176</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33">
-        <v>0.1901751635777064</v>
+        <v>0.08916460812727017</v>
       </c>
       <c r="F33">
-        <v>0.3300192431045539</v>
+        <v>0.3797384382107656</v>
       </c>
       <c r="G33">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H33">
-        <v>0.4539726645262803</v>
+        <v>0.4140624536588522</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1489,25 +1489,25 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.2034661065084796</v>
+        <v>0.4515531386352545</v>
       </c>
       <c r="C34">
-        <v>0.4473461798512508</v>
+        <v>0.4473838766275741</v>
       </c>
       <c r="D34">
         <v>2</v>
       </c>
       <c r="E34">
-        <v>0.2029496664965094</v>
+        <v>0.4511975481124122</v>
       </c>
       <c r="F34">
-        <v>0.3357921744708143</v>
+        <v>0.3540133043116729</v>
       </c>
       <c r="G34">
         <v>0.4</v>
       </c>
       <c r="H34">
-        <v>0.4537269364890239</v>
+        <v>0.4113658121021868</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1515,25 +1515,25 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.1356002701654796</v>
+        <v>0.1631189137040829</v>
       </c>
       <c r="C35">
-        <v>0.4382183908045977</v>
+        <v>0.4619364668944501</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0.1350398287197729</v>
+        <v>0.1625763142218063</v>
       </c>
       <c r="F35">
-        <v>0.3011545862732521</v>
+        <v>0.4021894641590646</v>
       </c>
       <c r="G35">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H35">
-        <v>0.4534538687653463</v>
+        <v>0.4083605228192647</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1541,25 +1541,25 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.2279401878239224</v>
+        <v>0.5165726314675287</v>
       </c>
       <c r="C36">
-        <v>0.5499070317782285</v>
+        <v>0.4492907932403731</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>0.2274396158057072</v>
+        <v>0.5162591969256572</v>
       </c>
       <c r="F36">
-        <v>0.7249839640795378</v>
+        <v>0.3603261268311771</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H36">
-        <v>0.4445056624706737</v>
+        <v>0.4008786113473394</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1567,25 +1567,25 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.4956658568479902</v>
+        <v>0.864548845029212</v>
       </c>
       <c r="C37">
-        <v>0.5282285327924272</v>
+        <v>0.4911727768030289</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>0.4953388672081838</v>
+        <v>0.8644610240379572</v>
       </c>
       <c r="F37">
-        <v>0.6427196921103264</v>
+        <v>0.4989758859350925</v>
       </c>
       <c r="G37">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H37">
-        <v>0.4380201034024939</v>
+        <v>0.3866981495664456</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1593,25 +1593,25 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.4515531386352545</v>
+        <v>0.3643690477238332</v>
       </c>
       <c r="C38">
-        <v>0.4688133874239351</v>
+        <v>0.5351851509834703</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>0.4511975481124122</v>
+        <v>0.3639569306007774</v>
       </c>
       <c r="F38">
-        <v>0.4172546504169337</v>
+        <v>0.6446782753307735</v>
       </c>
       <c r="G38">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.436662350544291</v>
+        <v>0.385079924012154</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1619,25 +1619,25 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.2538743631737941</v>
+        <v>0.3869341531727128</v>
       </c>
       <c r="C39">
-        <v>0.5472447599729547</v>
+        <v>0.537501154307877</v>
       </c>
       <c r="D39">
         <v>0</v>
       </c>
       <c r="E39">
-        <v>0.2533906058146128</v>
+        <v>0.3865366663415045</v>
       </c>
       <c r="F39">
-        <v>0.7148813341885822</v>
+        <v>0.6523453740614836</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0.4352744125125103</v>
+        <v>0.3836308163562926</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1645,25 +1645,25 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.03089829977301132</v>
+        <v>0.5192177330491734</v>
       </c>
       <c r="C40">
-        <v>0.4106659905341447</v>
+        <v>0.436507526087358</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40">
-        <v>0.0302699738502163</v>
+        <v>0.5189060134830282</v>
       </c>
       <c r="F40">
-        <v>0.1966003848620911</v>
+        <v>0.3180072880236737</v>
       </c>
       <c r="G40">
         <v>0.4</v>
       </c>
       <c r="H40">
-        <v>0.4325861591747932</v>
+        <v>0.3834217125128639</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1671,25 +1671,25 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.5192177330491734</v>
+        <v>0.1886308034084766</v>
       </c>
       <c r="C41">
-        <v>0.4732927653820149</v>
+        <v>0.4465546218487395</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>0.5189060134830282</v>
+        <v>0.1881047447924857</v>
       </c>
       <c r="F41">
-        <v>0.4342527261064785</v>
+        <v>0.3512680672063391</v>
       </c>
       <c r="G41">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H41">
-        <v>0.4299198877459858</v>
+        <v>0.3828862779240386</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1697,25 +1697,25 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.01363013844921856</v>
+        <v>0.3293070767217793</v>
       </c>
       <c r="C42">
-        <v>0.3979039891818797</v>
+        <v>0.3404469480099732</v>
       </c>
       <c r="D42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E42">
-        <v>0.01299061655659271</v>
+        <v>0.3288722268501588</v>
       </c>
       <c r="F42">
-        <v>0.148171905067351</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H42">
-        <v>0.4166706387156219</v>
+        <v>0.3742255546299682</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1723,25 +1723,25 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.3457715090179905</v>
+        <v>0.1888973184034439</v>
       </c>
       <c r="C43">
-        <v>0.5390466531440161</v>
+        <v>0.4397723704866562</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43">
-        <v>0.3453473340111581</v>
+        <v>0.1883714325848799</v>
       </c>
       <c r="F43">
-        <v>0.6837716484926227</v>
+        <v>0.3288155127295851</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H43">
-        <v>0.4044391925948175</v>
+        <v>0.3738519185748581</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1749,25 +1749,25 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.36275098879003</v>
+        <v>0.2279401878239224</v>
       </c>
       <c r="C44">
-        <v>0.5376943881000675</v>
+        <v>0.4955314433465694</v>
       </c>
       <c r="D44">
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0.3623378225837124</v>
+        <v>0.2274396158057072</v>
       </c>
       <c r="F44">
-        <v>0.6786401539448358</v>
+        <v>0.5134051945511018</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0.3989884970611919</v>
+        <v>0.3598741546592993</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1775,25 +1775,25 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.3643690477238332</v>
+        <v>0.4956658568479902</v>
       </c>
       <c r="C45">
-        <v>0.5375676132521975</v>
+        <v>0.4723529411764706</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45">
-        <v>0.3639569306007774</v>
+        <v>0.4953388672081838</v>
       </c>
       <c r="F45">
-        <v>0.6781590763309813</v>
+        <v>0.4366730661057986</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H45">
-        <v>0.3984722444122371</v>
+        <v>0.3556014530006827</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1801,25 +1801,25 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.3869341531727128</v>
+        <v>0.3484568179362907</v>
       </c>
       <c r="C46">
-        <v>0.5358350236646383</v>
+        <v>0.389038692400037</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46">
-        <v>0.3865366663415045</v>
+        <v>0.3480343839739778</v>
       </c>
       <c r="F46">
-        <v>0.671584348941629</v>
+        <v>0.1608623346132212</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H46">
-        <v>0.3913264063083507</v>
+        <v>0.354738057050493</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1827,25 +1827,25 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.864548845029212</v>
+        <v>0.06521736473355935</v>
       </c>
       <c r="C47">
-        <v>0.4929006085192698</v>
+        <v>0.3967910241019484</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>0.8644610240379572</v>
+        <v>0.06461128988942383</v>
       </c>
       <c r="F47">
-        <v>0.5086593970493904</v>
+        <v>0.1865263273741103</v>
       </c>
       <c r="G47">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="H47">
-        <v>0.3905715540121648</v>
+        <v>0.3416882729717594</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1853,25 +1853,25 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.6835900156559744</v>
+        <v>0.8919347935042901</v>
       </c>
       <c r="C48">
-        <v>0.5169033130493577</v>
+        <v>0.5182703850771078</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.6833848683578654</v>
+        <v>0.891864728442411</v>
       </c>
       <c r="F48">
-        <v>0.5997434252726103</v>
+        <v>0.5886821639071632</v>
       </c>
       <c r="G48">
         <v>0.2</v>
       </c>
       <c r="H48">
-        <v>0.383220396437471</v>
+        <v>0.3370999198743831</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1879,25 +1879,25 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.1886308034084766</v>
+        <v>0.7709589149957174</v>
       </c>
       <c r="C49">
-        <v>0.4455713319810682</v>
+        <v>0.491845045710592</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.1881047447924857</v>
+        <v>0.7708104141200512</v>
       </c>
       <c r="F49">
-        <v>0.3290570878768438</v>
+        <v>0.5012014233656974</v>
       </c>
       <c r="G49">
         <v>0.2</v>
       </c>
       <c r="H49">
-        <v>0.3740018861922404</v>
+        <v>0.3263184865222687</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1905,25 +1905,25 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0942920674693665</v>
+        <v>0.6681800460766195</v>
       </c>
       <c r="C50">
-        <v>0.4307386747802568</v>
+        <v>0.401037030196694</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
-        <v>0.09370484347382838</v>
+        <v>0.6679649075842385</v>
       </c>
       <c r="F50">
-        <v>0.2727710070558046</v>
+        <v>0.2005826750470785</v>
       </c>
       <c r="G50">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="H50">
-        <v>0.3703674341275562</v>
+        <v>0.3066400885019837</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1931,25 +1931,25 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.4739573413145514</v>
+        <v>0.3457715090179905</v>
       </c>
       <c r="C51">
-        <v>0.5296653144016227</v>
+        <v>0.4719484716963708</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0.4736162767607788</v>
+        <v>0.3453473340111581</v>
       </c>
       <c r="F51">
-        <v>0.6481719050673503</v>
+        <v>0.4353340751791434</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0.3645455066747844</v>
+        <v>0.3050641632694258</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1957,25 +1957,25 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.7709589149957174</v>
+        <v>0.2356481474573686</v>
       </c>
       <c r="C52">
-        <v>0.5120858688302907</v>
+        <v>0.4517462369563209</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.7708104141200512</v>
+        <v>0.2351525729650563</v>
       </c>
       <c r="F52">
-        <v>0.581462475946119</v>
+        <v>0.3684548411553227</v>
       </c>
       <c r="G52">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>0.3584229075544373</v>
+        <v>0.3003514218691178</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1983,25 +1983,25 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.4956549991585296</v>
+        <v>0.6508986506823842</v>
       </c>
       <c r="C53">
-        <v>0.5282285327924273</v>
+        <v>0.4925043863699326</v>
       </c>
       <c r="D53">
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0.4953280024790412</v>
+        <v>0.6506723076397422</v>
       </c>
       <c r="F53">
-        <v>0.6427196921103268</v>
+        <v>0.5033841619995598</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>0.3580222763483225</v>
+        <v>0.2712192032718755</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2012,7 +2012,7 @@
         <v>0.4614358313695368</v>
       </c>
       <c r="C54">
-        <v>0.4694895199459093</v>
+        <v>0.4000904977375566</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -2021,13 +2021,13 @@
         <v>0.4610866483806308</v>
       </c>
       <c r="F54">
-        <v>0.419820397690827</v>
+        <v>0.197449191714153</v>
       </c>
       <c r="G54">
         <v>0.2</v>
       </c>
       <c r="H54">
-        <v>0.3557108294002047</v>
+        <v>0.2667623470095351</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2035,25 +2035,25 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.7982500421585118</v>
+        <v>0.6835900156559744</v>
       </c>
       <c r="C55">
-        <v>0.510606828938472</v>
+        <v>0.4238655462184874</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.7981192357339592</v>
+        <v>0.6833848683578654</v>
       </c>
       <c r="F55">
-        <v>0.5758499037844771</v>
+        <v>0.2761561789234268</v>
       </c>
       <c r="G55">
         <v>0.2</v>
       </c>
       <c r="H55">
-        <v>0.3507161143669991</v>
+        <v>0.2537854978977976</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2061,25 +2061,25 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.5638112078577666</v>
+        <v>0.7077482405060463</v>
       </c>
       <c r="C56">
-        <v>0.5239181879648411</v>
+        <v>0.4801182011266045</v>
       </c>
       <c r="D56">
         <v>0</v>
       </c>
       <c r="E56">
-        <v>0.5635284008775793</v>
+        <v>0.7075587564132731</v>
       </c>
       <c r="F56">
-        <v>0.6263630532392557</v>
+        <v>0.4623798576634302</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>0.3378395411201864</v>
+        <v>0.2434401917827175</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2087,25 +2087,25 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.8919347935042901</v>
+        <v>0.5638112078577666</v>
       </c>
       <c r="C57">
-        <v>0.5056626098715349</v>
+        <v>0.4561436882445286</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>0.891864728442411</v>
+        <v>0.5635284008775793</v>
       </c>
       <c r="F57">
-        <v>0.5570878768441309</v>
+        <v>0.3830125461615592</v>
       </c>
       <c r="G57">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>0.3244622050491702</v>
+        <v>0.2404993382891079</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2113,25 +2113,25 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.006056484383871757</v>
+        <v>0.4739573413145514</v>
       </c>
       <c r="C58">
-        <v>0.3864097363083164</v>
+        <v>0.4420639024840705</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58">
-        <v>0.005412052043582446</v>
+        <v>0.4736162767607788</v>
       </c>
       <c r="F58">
-        <v>0.104554201411161</v>
+        <v>0.3364015994521752</v>
       </c>
       <c r="G58">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>0.3207392701557479</v>
+        <v>0.2398373844287144</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2139,25 +2139,25 @@
         <v>65</v>
       </c>
       <c r="B59">
-        <v>0.8903199512281357</v>
+        <v>0.8903199742985624</v>
       </c>
       <c r="C59">
-        <v>0.4942528735632183</v>
+        <v>0.5037759719272324</v>
       </c>
       <c r="D59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E59">
-        <v>0.8902488391685441</v>
+        <v>0.8902488622539287</v>
       </c>
       <c r="F59">
-        <v>0.5137908915971773</v>
+        <v>0.5406985986451124</v>
       </c>
       <c r="G59">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>0.3074665888051621</v>
+        <v>0.2382296670072592</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2165,25 +2165,25 @@
         <v>66</v>
       </c>
       <c r="B60">
-        <v>0.716885642903939</v>
+        <v>0.7982500421585118</v>
       </c>
       <c r="C60">
-        <v>0.5150439486139282</v>
+        <v>0.4293471234647704</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
-        <v>0.7167020831293176</v>
+        <v>0.7981192357339592</v>
       </c>
       <c r="F60">
-        <v>0.5926876202694027</v>
+        <v>0.2943028687422042</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H60">
-        <v>0.2937346314818976</v>
+        <v>0.2380973003500899</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2191,25 +2191,25 @@
         <v>67</v>
       </c>
       <c r="B61">
-        <v>0.1350658188665569</v>
+        <v>0.716885642903939</v>
       </c>
       <c r="C61">
-        <v>0.4381338742393509</v>
+        <v>0.4703416751315911</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61">
-        <v>0.1345050309044779</v>
+        <v>0.7167020831293176</v>
       </c>
       <c r="F61">
-        <v>0.3008338678640152</v>
+        <v>0.4300147961554452</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>0.2934325409647105</v>
+        <v>0.2286655018363146</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2217,25 +2217,25 @@
         <v>68</v>
       </c>
       <c r="B62">
-        <v>0.2356481474573686</v>
+        <v>0.5352339024128032</v>
       </c>
       <c r="C62">
-        <v>0.450895875591616</v>
+        <v>0.4364345738295318</v>
       </c>
       <c r="D62">
         <v>0</v>
       </c>
       <c r="E62">
-        <v>0.2351525729650563</v>
+        <v>0.5349325670760868</v>
       </c>
       <c r="F62">
-        <v>0.3492623476587555</v>
+        <v>0.3177657805277703</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>0.292674424470491</v>
+        <v>0.2201197987958908</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2243,25 +2243,25 @@
         <v>69</v>
       </c>
       <c r="B63">
-        <v>0.4261888410452731</v>
+        <v>0.1350658188665569</v>
       </c>
       <c r="C63">
-        <v>0.4670385395537525</v>
+        <v>0.3750013851694524</v>
       </c>
       <c r="D63">
         <v>0</v>
       </c>
       <c r="E63">
-        <v>0.425816805348838</v>
+        <v>0.1345050309044779</v>
       </c>
       <c r="F63">
-        <v>0.410519563822963</v>
+        <v>0.114392012521705</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>0.2790444644594176</v>
+        <v>0.2188557988277864</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2269,25 +2269,25 @@
         <v>70</v>
       </c>
       <c r="B64">
-        <v>0.7944100928586526</v>
+        <v>1</v>
       </c>
       <c r="C64">
-        <v>0.5108181203515889</v>
+        <v>0.5</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0.7942767967679619</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0.5766516998075687</v>
+        <v>0.5281982929394213</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>0.2718053205694351</v>
+        <v>0.2112793171757685</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2295,25 +2295,25 @@
         <v>71</v>
       </c>
       <c r="B65">
-        <v>0.5338897702767413</v>
+        <v>0.36275098879003</v>
       </c>
       <c r="C65">
-        <v>0.4742224475997295</v>
+        <v>0.3979259396066118</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
       <c r="E65">
-        <v>0.5335875634596999</v>
+        <v>0.3623378225837124</v>
       </c>
       <c r="F65">
-        <v>0.4377806286080819</v>
+        <v>0.1902834503167109</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.2683947387512928</v>
+        <v>0.2036458156099419</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2321,25 +2321,25 @@
         <v>72</v>
       </c>
       <c r="B66">
-        <v>0.5352339024128032</v>
+        <v>0.5338897702767413</v>
       </c>
       <c r="C66">
-        <v>0.4743069641649763</v>
+        <v>0.4233992058361806</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0.5349325670760868</v>
+        <v>0.5335875634596999</v>
       </c>
       <c r="F66">
-        <v>0.4381013470173185</v>
+        <v>0.2746123651837901</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.2682540253917101</v>
+        <v>0.203127433381576</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2347,25 +2347,25 @@
         <v>73</v>
       </c>
       <c r="B67">
-        <v>0.6145509623058565</v>
+        <v>0.4261888410452731</v>
       </c>
       <c r="C67">
-        <v>0.4791244083840432</v>
+        <v>0.395929448702558</v>
       </c>
       <c r="D67">
         <v>0</v>
       </c>
       <c r="E67">
-        <v>0.6143010529080679</v>
+        <v>0.425816805348838</v>
       </c>
       <c r="F67">
-        <v>0.4563822963438098</v>
+        <v>0.1836740932769207</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.2596927079559104</v>
+        <v>0.1883062762410007</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2373,25 +2373,25 @@
         <v>74</v>
       </c>
       <c r="B68">
-        <v>0.6508986506823842</v>
+        <v>0.6145509623058565</v>
       </c>
       <c r="C68">
-        <v>0.481237322515213</v>
+        <v>0.4203703019669406</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68">
-        <v>0.6506723076397422</v>
+        <v>0.6143010529080679</v>
       </c>
       <c r="F68">
-        <v>0.4644002565747271</v>
+        <v>0.264585218518428</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.2556256411019424</v>
+        <v>0.1829738768257576</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2399,25 +2399,25 @@
         <v>75</v>
       </c>
       <c r="B69">
-        <v>0.7077482405060463</v>
+        <v>0.8903199512281357</v>
       </c>
       <c r="C69">
-        <v>0.4844489519945909</v>
+        <v>0.4001403638378429</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69">
-        <v>0.7075587564132731</v>
+        <v>0.8902488391685441</v>
       </c>
       <c r="F69">
-        <v>0.4765875561257213</v>
+        <v>0.1976142727873025</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H69">
-        <v>0.2491232711676339</v>
+        <v>0.1809959412812122</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2425,25 +2425,25 @@
         <v>76</v>
       </c>
       <c r="B70">
-        <v>0.7834873729385233</v>
+        <v>0.7944100928586526</v>
       </c>
       <c r="C70">
-        <v>0.4885902636916836</v>
+        <v>0.442943946809493</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70">
-        <v>0.7833469950027883</v>
+        <v>0.7942767967679619</v>
       </c>
       <c r="F70">
-        <v>0.4923027581783192</v>
+        <v>0.3393149746875687</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.2402517042707701</v>
+        <v>0.1768706305214351</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2451,25 +2451,25 @@
         <v>77</v>
       </c>
       <c r="B71">
-        <v>0.8774181684939349</v>
+        <v>0.7834873729385233</v>
       </c>
       <c r="C71">
-        <v>0.4935767410412441</v>
+        <v>0.4409733124018839</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71">
-        <v>0.8773386914458802</v>
+        <v>0.7833469950027883</v>
       </c>
       <c r="F71">
-        <v>0.5112251443232839</v>
+        <v>0.332791215241263</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>0.2290223194401376</v>
+        <v>0.1764470870959476</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2477,25 +2477,25 @@
         <v>78</v>
       </c>
       <c r="B72">
-        <v>0.8903199742985624</v>
+        <v>0.4956549991585296</v>
       </c>
       <c r="C72">
-        <v>0.4942528735632184</v>
+        <v>0.3929319420075722</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72">
-        <v>0.8902488622539287</v>
+        <v>0.4953280024790412</v>
       </c>
       <c r="F72">
-        <v>0.5137908915971774</v>
+        <v>0.1737508865465038</v>
       </c>
       <c r="G72">
         <v>0</v>
       </c>
       <c r="H72">
-        <v>0.2274665841880852</v>
+        <v>0.1704347541227933</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2503,25 +2503,25 @@
         <v>79</v>
       </c>
       <c r="B73">
-        <v>0.8903199742985624</v>
+        <v>0.8774181684939349</v>
       </c>
       <c r="C73">
-        <v>0.4942528735632184</v>
+        <v>0.4464059469941823</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73">
-        <v>0.8902488622539287</v>
+        <v>0.8773386914458802</v>
       </c>
       <c r="F73">
-        <v>0.5137908915971774</v>
+        <v>0.3507758810438015</v>
       </c>
       <c r="G73">
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0.2274665841880852</v>
+        <v>0.1648426141283446</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2532,7 +2532,7 @@
         <v>0.8951658162140457</v>
       </c>
       <c r="C74">
-        <v>0.4945064232589587</v>
+        <v>0.4430307507618432</v>
       </c>
       <c r="D74">
         <v>0</v>
@@ -2541,13 +2541,13 @@
         <v>0.8950978460151983</v>
       </c>
       <c r="F74">
-        <v>0.5147530468248873</v>
+        <v>0.3396023380371248</v>
       </c>
       <c r="G74">
         <v>0</v>
       </c>
       <c r="H74">
-        <v>0.2268816495269153</v>
+        <v>0.1568213660118103</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2558,7 +2558,7 @@
         <v>0.9568250020980545</v>
       </c>
       <c r="C75">
-        <v>0.4977180527383367</v>
+        <v>0.4258795826022716</v>
       </c>
       <c r="D75">
         <v>0</v>
@@ -2567,13 +2567,13 @@
         <v>0.9567970091945316</v>
       </c>
       <c r="F75">
-        <v>0.5269403463758816</v>
+        <v>0.2828236200445105</v>
       </c>
       <c r="G75">
         <v>0</v>
       </c>
       <c r="H75">
-        <v>0.2194167367114463</v>
+        <v>0.1217700461788979</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2581,25 +2581,25 @@
         <v>82</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>0.8903199742985624</v>
       </c>
       <c r="C76">
-        <v>0.5</v>
+        <v>0.3934278326715301</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0.8902488622539287</v>
       </c>
       <c r="F76">
-        <v>0.5355997434252723</v>
+        <v>0.1753925261072658</v>
       </c>
       <c r="G76">
         <v>0</v>
       </c>
       <c r="H76">
-        <v>0.2142398973701089</v>
+        <v>0.09210723799212059</v>
       </c>
     </row>
   </sheetData>
